--- a/datafiles0126.xlsx
+++ b/datafiles0126.xlsx
@@ -212,12 +212,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0_ "/>
     <numFmt numFmtId="166" formatCode="H:MM"/>
     <numFmt numFmtId="167" formatCode="0.00_ "/>
-    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.00"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -339,7 +340,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -408,6 +409,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -425,6 +430,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -516,7 +525,7 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U3" activeCellId="0" sqref="U3:V29"/>
+      <selection pane="topLeft" activeCell="W25" activeCellId="0" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -747,16 +756,16 @@
         <f aca="false">N3/Q3*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U3" s="16" t="n">
+      <c r="U3" s="17" t="n">
         <f aca="false">(L3-T3)/L3</f>
         <v>0.445805950674006</v>
       </c>
-      <c r="V3" s="16" t="n">
+      <c r="V3" s="17" t="n">
         <f aca="false">S3/(L3-T3)</f>
         <v>0.634428688291704</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -833,11 +842,11 @@
         <f aca="false">N4/Q4*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U4" s="16" t="n">
+      <c r="U4" s="17" t="n">
         <f aca="false">(L4-T4)/L4</f>
         <v>0.445805950674006</v>
       </c>
-      <c r="V4" s="16" t="n">
+      <c r="V4" s="17" t="n">
         <f aca="false">S4/(L4-T4)</f>
         <v>0.634428688291704</v>
       </c>
@@ -919,11 +928,11 @@
         <f aca="false">N5/Q5*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U5" s="16" t="n">
+      <c r="U5" s="17" t="n">
         <f aca="false">(L5-T5)/L5</f>
         <v>0.445805950674006</v>
       </c>
-      <c r="V5" s="16" t="n">
+      <c r="V5" s="17" t="n">
         <f aca="false">S5/(L5-T5)</f>
         <v>0.634428688291704</v>
       </c>
@@ -1005,11 +1014,11 @@
         <f aca="false">N6/Q6*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U6" s="16" t="n">
+      <c r="U6" s="17" t="n">
         <f aca="false">(L6-T6)/L6</f>
         <v>0.445805950674006</v>
       </c>
-      <c r="V6" s="16" t="n">
+      <c r="V6" s="17" t="n">
         <f aca="false">S6/(L6-T6)</f>
         <v>0.634428688291704</v>
       </c>
@@ -1091,11 +1100,11 @@
         <f aca="false">N7/Q7*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U7" s="16" t="n">
+      <c r="U7" s="17" t="n">
         <f aca="false">(L7-T7)/L7</f>
         <v>0.445805950674006</v>
       </c>
-      <c r="V7" s="16" t="n">
+      <c r="V7" s="17" t="n">
         <f aca="false">S7/(L7-T7)</f>
         <v>0.634428688291704</v>
       </c>
@@ -1177,16 +1186,16 @@
         <f aca="false">N8/Q8*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U8" s="16" t="n">
+      <c r="U8" s="17" t="n">
         <f aca="false">(L8-T8)/L8</f>
         <v>0.414601330779525</v>
       </c>
-      <c r="V8" s="16" t="n">
+      <c r="V8" s="17" t="n">
         <f aca="false">S8/(L8-T8)</f>
         <v>0.720589376645734</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,11 +1272,11 @@
         <f aca="false">N9/Q9*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U9" s="16" t="n">
+      <c r="U9" s="17" t="n">
         <f aca="false">(L9-T9)/L9</f>
         <v>0.414601330779525</v>
       </c>
-      <c r="V9" s="16" t="n">
+      <c r="V9" s="17" t="n">
         <f aca="false">S9/(L9-T9)</f>
         <v>0.720589376645734</v>
       </c>
@@ -1349,11 +1358,11 @@
         <f aca="false">N10/Q10*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U10" s="16" t="n">
+      <c r="U10" s="17" t="n">
         <f aca="false">(L10-T10)/L10</f>
         <v>0.413279889088282</v>
       </c>
-      <c r="V10" s="16" t="n">
+      <c r="V10" s="17" t="n">
         <f aca="false">S10/(L10-T10)</f>
         <v>0.724525238591385</v>
       </c>
@@ -1435,11 +1444,11 @@
         <f aca="false">N11/Q11*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U11" s="16" t="n">
+      <c r="U11" s="17" t="n">
         <f aca="false">(L11-T11)/L11</f>
         <v>0.412616928510981</v>
       </c>
-      <c r="V11" s="16" t="n">
+      <c r="V11" s="17" t="n">
         <f aca="false">S11/(L11-T11)</f>
         <v>0.726509336987282</v>
       </c>
@@ -1521,11 +1530,11 @@
         <f aca="false">N12/Q12*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U12" s="16" t="n">
+      <c r="U12" s="17" t="n">
         <f aca="false">(L12-T12)/L12</f>
         <v>0.417226436919527</v>
       </c>
-      <c r="V12" s="16" t="n">
+      <c r="V12" s="17" t="n">
         <f aca="false">S12/(L12-T12)</f>
         <v>0.712844559418842</v>
       </c>
@@ -1607,11 +1616,11 @@
         <f aca="false">N13/Q13*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U13" s="16" t="n">
+      <c r="U13" s="17" t="n">
         <f aca="false">(L13-T13)/L13</f>
         <v>0.417226436919527</v>
       </c>
-      <c r="V13" s="16" t="n">
+      <c r="V13" s="17" t="n">
         <f aca="false">S13/(L13-T13)</f>
         <v>0.712844559418842</v>
       </c>
@@ -1693,16 +1702,16 @@
         <f aca="false">N14/Q14*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U14" s="16" t="n">
+      <c r="U14" s="17" t="n">
         <f aca="false">(L14-T14)/L14</f>
         <v>0.37893187781627</v>
       </c>
-      <c r="V14" s="16" t="n">
+      <c r="V14" s="17" t="n">
         <f aca="false">S14/(L14-T14)</f>
         <v>0.8364594898534</v>
       </c>
       <c r="W14" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,11 +1788,11 @@
         <f aca="false">N15/Q15*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U15" s="16" t="n">
+      <c r="U15" s="17" t="n">
         <f aca="false">(L15-T15)/L15</f>
         <v>0.37893187781627</v>
       </c>
-      <c r="V15" s="16" t="n">
+      <c r="V15" s="17" t="n">
         <f aca="false">S15/(L15-T15)</f>
         <v>0.8364594898534</v>
       </c>
@@ -1865,11 +1874,11 @@
         <f aca="false">N16/Q16*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U16" s="16" t="n">
+      <c r="U16" s="17" t="n">
         <f aca="false">(L16-T16)/L16</f>
         <v>0.37893187781627</v>
       </c>
-      <c r="V16" s="16" t="n">
+      <c r="V16" s="17" t="n">
         <f aca="false">S16/(L16-T16)</f>
         <v>0.8364594898534</v>
       </c>
@@ -1951,11 +1960,11 @@
         <f aca="false">N17/Q17*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U17" s="16" t="n">
+      <c r="U17" s="17" t="n">
         <f aca="false">(L17-T17)/L17</f>
         <v>0.37893187781627</v>
       </c>
-      <c r="V17" s="16" t="n">
+      <c r="V17" s="17" t="n">
         <f aca="false">S17/(L17-T17)</f>
         <v>0.8364594898534</v>
       </c>
@@ -2037,11 +2046,11 @@
         <f aca="false">N18/Q18*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U18" s="16" t="n">
+      <c r="U18" s="17" t="n">
         <f aca="false">(L18-T18)/L18</f>
         <v>0.37893187781627</v>
       </c>
-      <c r="V18" s="16" t="n">
+      <c r="V18" s="17" t="n">
         <f aca="false">S18/(L18-T18)</f>
         <v>0.836459489853399</v>
       </c>
@@ -2123,11 +2132,11 @@
         <f aca="false">N19/Q19*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U19" s="16" t="n">
+      <c r="U19" s="17" t="n">
         <f aca="false">(L19-T19)/L19</f>
         <v>0.378188973363897</v>
       </c>
-      <c r="V19" s="16" t="n">
+      <c r="V19" s="17" t="n">
         <f aca="false">S19/(L19-T19)</f>
         <v>0.839105123913302</v>
       </c>
@@ -2209,11 +2218,11 @@
         <f aca="false">N20/Q20*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U20" s="16" t="n">
+      <c r="U20" s="17" t="n">
         <f aca="false">(L20-T20)/L20</f>
         <v>0.377444289499663</v>
       </c>
-      <c r="V20" s="16" t="n">
+      <c r="V20" s="17" t="n">
         <f aca="false">S20/(L20-T20)</f>
         <v>0.841767546803302</v>
       </c>
@@ -2295,16 +2304,16 @@
         <f aca="false">N21/Q21*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U21" s="16" t="n">
+      <c r="U21" s="17" t="n">
         <f aca="false">(L21-T21)/L21</f>
         <v>0.340312159558653</v>
       </c>
-      <c r="V21" s="16" t="n">
+      <c r="V21" s="17" t="n">
         <f aca="false">S21/(L21-T21)</f>
         <v>0.989299588131578</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2381,11 +2390,11 @@
         <f aca="false">N22/Q22*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U22" s="16" t="n">
+      <c r="U22" s="17" t="n">
         <f aca="false">(L22-T22)/L22</f>
         <v>0.340312159558653</v>
       </c>
-      <c r="V22" s="16" t="n">
+      <c r="V22" s="17" t="n">
         <f aca="false">S22/(L22-T22)</f>
         <v>0.989299588131578</v>
       </c>
@@ -2467,11 +2476,11 @@
         <f aca="false">N23/Q23*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U23" s="16" t="n">
+      <c r="U23" s="17" t="n">
         <f aca="false">(L23-T23)/L23</f>
         <v>0.340312159558653</v>
       </c>
-      <c r="V23" s="16" t="n">
+      <c r="V23" s="17" t="n">
         <f aca="false">S23/(L23-T23)</f>
         <v>0.989299588131578</v>
       </c>
@@ -2553,11 +2562,11 @@
         <f aca="false">N24/Q24*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U24" s="16" t="n">
+      <c r="U24" s="17" t="n">
         <f aca="false">(L24-T24)/L24</f>
         <v>0.340312159558653</v>
       </c>
-      <c r="V24" s="16" t="n">
+      <c r="V24" s="17" t="n">
         <f aca="false">S24/(L24-T24)</f>
         <v>0.989299588131578</v>
       </c>
@@ -2639,11 +2648,11 @@
         <f aca="false">N25/Q25*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U25" s="16" t="n">
+      <c r="U25" s="17" t="n">
         <f aca="false">(L25-T25)/L25</f>
         <v>0.340312159558653</v>
       </c>
-      <c r="V25" s="16" t="n">
+      <c r="V25" s="17" t="n">
         <f aca="false">S25/(L25-T25)</f>
         <v>0.989299588131578</v>
       </c>
@@ -2725,11 +2734,11 @@
         <f aca="false">N26/Q26*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U26" s="16" t="n">
+      <c r="U26" s="17" t="n">
         <f aca="false">(L26-T26)/L26</f>
         <v>0.340312159558653</v>
       </c>
-      <c r="V26" s="16" t="n">
+      <c r="V26" s="17" t="n">
         <f aca="false">S26/(L26-T26)</f>
         <v>0.989299588131578</v>
       </c>
@@ -2811,11 +2820,11 @@
         <f aca="false">N27/Q27*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U27" s="16" t="n">
+      <c r="U27" s="17" t="n">
         <f aca="false">(L27-T27)/L27</f>
         <v>0.340312159558653</v>
       </c>
-      <c r="V27" s="16" t="n">
+      <c r="V27" s="17" t="n">
         <f aca="false">S27/(L27-T27)</f>
         <v>0.989299588131578</v>
       </c>
@@ -2897,11 +2906,11 @@
         <f aca="false">N28/Q28*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U28" s="16" t="n">
+      <c r="U28" s="17" t="n">
         <f aca="false">(L28-T28)/L28</f>
         <v>0.340312159558653</v>
       </c>
-      <c r="V28" s="16" t="n">
+      <c r="V28" s="17" t="n">
         <f aca="false">S28/(L28-T28)</f>
         <v>0.989299588131578</v>
       </c>
@@ -2925,7 +2934,7 @@
       <c r="E29" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="F29" s="17" t="n">
+      <c r="F29" s="18" t="n">
         <v>0.722222222222222</v>
       </c>
       <c r="G29" s="11" t="n">
@@ -2935,27 +2944,27 @@
         <f aca="false">G30-G29</f>
         <v>0.4</v>
       </c>
-      <c r="I29" s="18" t="n">
+      <c r="I29" s="19" t="n">
         <f aca="false">I30</f>
         <v>11.26</v>
       </c>
-      <c r="J29" s="18" t="n">
+      <c r="J29" s="19" t="n">
         <f aca="false">J30</f>
         <v>29.31</v>
       </c>
-      <c r="K29" s="18" t="n">
+      <c r="K29" s="19" t="n">
         <f aca="false">K30-H29</f>
         <v>7.88</v>
       </c>
-      <c r="L29" s="19" t="n">
+      <c r="L29" s="20" t="n">
         <f aca="false">0.25*PI()*J29*J29*K29</f>
         <v>5316.7683143301</v>
       </c>
-      <c r="M29" s="20" t="n">
+      <c r="M29" s="21" t="n">
         <f aca="false">I29/L29*1000</f>
         <v>2.11782784847918</v>
       </c>
-      <c r="N29" s="18" t="n">
+      <c r="N29" s="19" t="n">
         <f aca="false">N30</f>
         <v>9.47</v>
       </c>
@@ -2963,7 +2972,7 @@
         <f aca="false">I29-N29</f>
         <v>1.79</v>
       </c>
-      <c r="P29" s="20" t="n">
+      <c r="P29" s="21" t="n">
         <f aca="false">N29/L29*1000</f>
         <v>1.78115716919164</v>
       </c>
@@ -2971,7 +2980,7 @@
         <f aca="false">Q30</f>
         <v>2.7</v>
       </c>
-      <c r="R29" s="21" t="n">
+      <c r="R29" s="22" t="n">
         <f aca="false">O29/N29</f>
         <v>0.189017951425554</v>
       </c>
@@ -2979,15 +2988,15 @@
         <f aca="false">O29*1000</f>
         <v>1790</v>
       </c>
-      <c r="T29" s="19" t="n">
+      <c r="T29" s="20" t="n">
         <f aca="false">N29/Q29*1000</f>
         <v>3507.40740740741</v>
       </c>
-      <c r="U29" s="21" t="n">
+      <c r="U29" s="23" t="n">
         <f aca="false">(L29-T29)/L29</f>
         <v>0.340312159558653</v>
       </c>
-      <c r="V29" s="21" t="n">
+      <c r="V29" s="23" t="n">
         <f aca="false">S29/(L29-T29)</f>
         <v>0.989299588131577</v>
       </c>
@@ -3002,19 +3011,19 @@
       <c r="G30" s="1" t="n">
         <v>8.57</v>
       </c>
-      <c r="I30" s="22" t="n">
+      <c r="I30" s="24" t="n">
         <v>11.26</v>
       </c>
-      <c r="J30" s="22" t="n">
+      <c r="J30" s="24" t="n">
         <v>29.31</v>
       </c>
-      <c r="K30" s="22" t="n">
+      <c r="K30" s="24" t="n">
         <v>8.28</v>
       </c>
-      <c r="N30" s="22" t="n">
+      <c r="N30" s="24" t="n">
         <v>9.47</v>
       </c>
-      <c r="Q30" s="23" t="n">
+      <c r="Q30" s="25" t="n">
         <v>2.7</v>
       </c>
     </row>

--- a/datafiles0126.xlsx
+++ b/datafiles0126.xlsx
@@ -49,10 +49,10 @@
     <t xml:space="preserve">m_wet</t>
   </si>
   <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h</t>
+    <t xml:space="preserve">diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">height</t>
   </si>
   <si>
     <t xml:space="preserve">volume</t>
@@ -525,7 +525,7 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W25" activeCellId="0" sqref="W25"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
